--- a/Table/SkillEffect.xlsx
+++ b/Table/SkillEffect.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_스킬 정보" sheetId="2" r:id="rId1"/>
-    <sheet name="Skill_Effect" sheetId="1" r:id="rId2"/>
+    <sheet name="Skill_Effect_Info" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Skill">'_스킬 정보'!$B$3:$E$15</definedName>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -952,11 +952,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
